--- a/data/trans_dic/P08_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2715688779268876</v>
+        <v>0.2736538714259536</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2998232806693459</v>
+        <v>0.3018272343190593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3008398821957626</v>
+        <v>0.301321588659093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.304099374083957</v>
+        <v>0.3030643012569508</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4288644383369154</v>
+        <v>0.4254964927153203</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4646942924299107</v>
+        <v>0.4622154010865737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4544937692461881</v>
+        <v>0.4553523523517642</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5099303711915685</v>
+        <v>0.5073658327371556</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3684774510603671</v>
+        <v>0.3677961868869052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.401776253484866</v>
+        <v>0.4017029274259641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3979534164282414</v>
+        <v>0.399059651344863</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4315939885947225</v>
+        <v>0.43222459866455</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3267861544372036</v>
+        <v>0.3250968147528839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3616019601071873</v>
+        <v>0.3653279823644887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3698855369120828</v>
+        <v>0.3687897054599992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3785858680012519</v>
+        <v>0.3778785181213326</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4846175107250774</v>
+        <v>0.4829441734738892</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5187772657657325</v>
+        <v>0.5172502193243032</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5211417583630593</v>
+        <v>0.5224976778242841</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5622286534372087</v>
+        <v>0.5630689544876116</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4063775636790936</v>
+        <v>0.4063809186376961</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4432595555482801</v>
+        <v>0.4430276992182352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4462809937691755</v>
+        <v>0.4471893908648968</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4781404992611211</v>
+        <v>0.4773051417061734</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05549788600909203</v>
+        <v>0.05542130443824637</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07426199002900519</v>
+        <v>0.07501559013900039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08170897514760635</v>
+        <v>0.08150027663482362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.113268278514484</v>
+        <v>0.1127255164991598</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07323767646632195</v>
+        <v>0.07290355966411036</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1106157960756447</v>
+        <v>0.108627548207912</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1226880797189581</v>
+        <v>0.122893994488465</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1416935540660599</v>
+        <v>0.1412347497462594</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06767200525268291</v>
+        <v>0.0675844187568788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09559050808968747</v>
+        <v>0.09621970106190937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1050375192605089</v>
+        <v>0.105061676545643</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1308006013393046</v>
+        <v>0.1307005903396786</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.080855340660037</v>
+        <v>0.08028135310951266</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1027991478642747</v>
+        <v>0.1018794908916545</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1081861499609755</v>
+        <v>0.1078822270981831</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1426097974749134</v>
+        <v>0.1416028264899356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1014839226300776</v>
+        <v>0.1014197885628399</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.143673753355849</v>
+        <v>0.1443110116455008</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1543567048308943</v>
+        <v>0.1562669430825858</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1678570173395254</v>
+        <v>0.1673527079603883</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08663186505471937</v>
+        <v>0.08623675951249157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1163011930612803</v>
+        <v>0.1171738691431387</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1266256327830341</v>
+        <v>0.126647629738343</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1498884491210433</v>
+        <v>0.1503029180935167</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07802302150208348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06883237591305998</v>
+        <v>0.06883237591305999</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1022618849614234</v>
@@ -957,7 +957,7 @@
         <v>0.0844051615537237</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09800528628798258</v>
+        <v>0.09800528628798257</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08116125555684232</v>
@@ -969,7 +969,7 @@
         <v>0.0812206544425457</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08366265789703008</v>
+        <v>0.08366265789703006</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04223789261197691</v>
+        <v>0.04257970418262889</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04949511119323403</v>
+        <v>0.0505341954961183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05670755440379797</v>
+        <v>0.05569741665220149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05186494091675026</v>
+        <v>0.05282161923697895</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07564510543436416</v>
+        <v>0.07597666735812886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05943176255088187</v>
+        <v>0.05836221347775295</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05893721066511623</v>
+        <v>0.06192754959055235</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08036897550141997</v>
+        <v>0.07995812009577741</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06547923227653743</v>
+        <v>0.0631268478103835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06186315034609445</v>
+        <v>0.06336331763209237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06323881838058235</v>
+        <v>0.06387140822264403</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07162420466339196</v>
+        <v>0.0720883699285727</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0886613511080773</v>
+        <v>0.08794229237671901</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1056957023745388</v>
+        <v>0.1051486300639323</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1059649534230151</v>
+        <v>0.1037192201059477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08845646812254228</v>
+        <v>0.08835291882168556</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1323161534568577</v>
+        <v>0.131868344849459</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1106090134920236</v>
+        <v>0.1098571736511347</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.112476768398023</v>
+        <v>0.1130683743678085</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.116674470528741</v>
+        <v>0.1167095539558479</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.100631042229996</v>
+        <v>0.09917247791615391</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1001660000250232</v>
+        <v>0.1003422075432588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09938379443551902</v>
+        <v>0.09954750571104244</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09612750678387096</v>
+        <v>0.09694769207359473</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1456591222339593</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1503120195387021</v>
+        <v>0.1503120195387022</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2324805316779363</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1273777890994579</v>
+        <v>0.127714919808469</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1442156937383421</v>
+        <v>0.1425032371251896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1349565058683083</v>
+        <v>0.1321390785617788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1386081257927406</v>
+        <v>0.1383893233822084</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2178241037258363</v>
+        <v>0.2189875611942221</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2423737058395741</v>
+        <v>0.242036159546607</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2140585045146341</v>
+        <v>0.2130667321609791</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2155699107307397</v>
+        <v>0.216922937029432</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1776327792959622</v>
+        <v>0.1775911393211849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.196502334660986</v>
+        <v>0.1978641814151038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1789711371203381</v>
+        <v>0.1789839465906683</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.181665888307068</v>
+        <v>0.1822118869458587</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1509213567591329</v>
+        <v>0.1524888260898279</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1690839455553622</v>
+        <v>0.1687938991914704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1581500517831325</v>
+        <v>0.1580433350953871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.162649416941463</v>
+        <v>0.1625502577906151</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2463302260934824</v>
+        <v>0.2473780541870226</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2732497852893096</v>
+        <v>0.273692699865162</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2437008021873162</v>
+        <v>0.2433249983475553</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2381425510876829</v>
+        <v>0.2391225344684639</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1964319400959227</v>
+        <v>0.1960979880861581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2173114487405526</v>
+        <v>0.2179695013659509</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1986261566637741</v>
+        <v>0.1975647468874464</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1976431802286521</v>
+        <v>0.1977475384923447</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>280184</v>
+        <v>282335</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>292221</v>
+        <v>294174</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>226938</v>
+        <v>227301</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>175930</v>
+        <v>175331</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>564005</v>
+        <v>559576</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>621161</v>
+        <v>617847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>452067</v>
+        <v>452921</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>418888</v>
+        <v>416782</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>864756</v>
+        <v>863157</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>928646</v>
+        <v>928477</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>696023</v>
+        <v>697958</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>604228</v>
+        <v>605111</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>337153</v>
+        <v>335410</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>352433</v>
+        <v>356064</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>279022</v>
+        <v>278195</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>219023</v>
+        <v>218614</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>637327</v>
+        <v>635126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>693454</v>
+        <v>691413</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>518359</v>
+        <v>519708</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>461849</v>
+        <v>462540</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>953701</v>
+        <v>953709</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1024529</v>
+        <v>1023993</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>780549</v>
+        <v>782137</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>669392</v>
+        <v>668223</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>93981</v>
+        <v>93851</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>145556</v>
+        <v>147033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>169659</v>
+        <v>169226</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>252652</v>
+        <v>251442</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>116277</v>
+        <v>115747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194441</v>
+        <v>190946</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>243941</v>
+        <v>244350</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>307672</v>
+        <v>306676</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>222038</v>
+        <v>221750</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>355390</v>
+        <v>357729</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>426944</v>
+        <v>427043</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>575779</v>
+        <v>575339</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136921</v>
+        <v>135949</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>201490</v>
+        <v>199687</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>224636</v>
+        <v>224005</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>318101</v>
+        <v>315854</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>161123</v>
+        <v>161021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>252550</v>
+        <v>253670</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>306907</v>
+        <v>310706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>364483</v>
+        <v>363388</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>284247</v>
+        <v>282950</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>432389</v>
+        <v>435634</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>514693</v>
+        <v>514783</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>659803</v>
+        <v>661627</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23290</v>
+        <v>23479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23816</v>
+        <v>24316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31013</v>
+        <v>30460</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36861</v>
+        <v>37541</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36038</v>
+        <v>36196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27257</v>
+        <v>26767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32365</v>
+        <v>34007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>59061</v>
+        <v>58759</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67301</v>
+        <v>64883</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58140</v>
+        <v>59550</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69311</v>
+        <v>70005</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103539</v>
+        <v>104210</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48889</v>
+        <v>48492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50859</v>
+        <v>50596</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57951</v>
+        <v>56723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62867</v>
+        <v>62794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63037</v>
+        <v>62824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50729</v>
+        <v>50384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61765</v>
+        <v>62090</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85741</v>
+        <v>85767</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>103431</v>
+        <v>101931</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94137</v>
+        <v>94303</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108927</v>
+        <v>109107</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>138961</v>
+        <v>140147</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>417359</v>
+        <v>418463</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>492621</v>
+        <v>486771</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>455832</v>
+        <v>446315</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>487874</v>
+        <v>487104</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>736071</v>
+        <v>740002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>861188</v>
+        <v>859989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>756076</v>
+        <v>752573</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>803587</v>
+        <v>808630</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1182278</v>
+        <v>1182001</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1369426</v>
+        <v>1378916</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1236640</v>
+        <v>1236729</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1316631</v>
+        <v>1320588</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>494500</v>
+        <v>499636</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>577567</v>
+        <v>576576</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>534170</v>
+        <v>533810</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>572495</v>
+        <v>572146</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>832398</v>
+        <v>835939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>970896</v>
+        <v>972469</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>860776</v>
+        <v>859448</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>887731</v>
+        <v>891384</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1307400</v>
+        <v>1305177</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1514444</v>
+        <v>1519030</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1372451</v>
+        <v>1365117</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1432427</v>
+        <v>1433183</v>
       </c>
     </row>
     <row r="20">
